--- a/data/Charcrete_database_38_short.xlsx
+++ b/data/Charcrete_database_38_short.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charlotte.roux\Documents\PERSO\Brightway Autumn School 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mija.frossard\PycharmProjects\Charcrete-LCA\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C29F00-AEEF-4583-A117-1ECF8EA34976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -152,7 +155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,9 +215,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -498,11 +500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="109" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,42 +534,42 @@
       <c r="B2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="P3" s="2">
+      <c r="P3" s="1">
         <v>2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="Q3" s="2">
         <v>1.05</v>
       </c>
-      <c r="R3" s="3">
+      <c r="R3" s="2">
         <v>1.02</v>
       </c>
-      <c r="S3" s="3">
+      <c r="S3" s="2">
         <v>1.03</v>
       </c>
-      <c r="T3" s="3">
+      <c r="T3" s="2">
         <v>1.01</v>
       </c>
-      <c r="U3" s="3">
+      <c r="U3" s="2">
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -578,22 +580,22 @@
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="2">
+      <c r="P4" s="1">
         <v>3</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>1.05</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>1.02</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>1.2</v>
       </c>
     </row>
@@ -605,22 +607,22 @@
         <f>B4</f>
         <v>Woodchip production</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="1">
         <v>4</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>1.2</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>1.2</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>1.3</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>1.5</v>
       </c>
     </row>
@@ -631,22 +633,22 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="P6" s="2">
+      <c r="P6" s="1">
         <v>5</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>1.5</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>1.2</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>1.5</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>2</v>
       </c>
     </row>
@@ -734,44 +736,44 @@
       <c r="M11" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="4" t="s">
+      <c r="P11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="R11" s="4" t="s">
+      <c r="R11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="S11" s="4" t="s">
+      <c r="S11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4" t="s">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="X11" s="4" t="s">
+      <c r="X11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="Y11" s="4" t="s">
+      <c r="Y11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Z11" s="4" t="s">
+      <c r="Z11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="AA11" s="4" t="s">
+      <c r="AA11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AB11" s="5" t="s">
+      <c r="AB11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AC11" s="4" t="s">
+      <c r="AC11" s="3" t="s">
         <v>27</v>
       </c>
     </row>
@@ -823,7 +825,13 @@
         <v>13</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>-5.625988447216181</v>
+      </c>
+      <c r="K13">
+        <v>0.52269439874826651</v>
       </c>
       <c r="P13">
         <v>4</v>
@@ -892,79 +900,82 @@
         <v>13</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="12:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="12:29" x14ac:dyDescent="0.3">
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="4"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="4"/>
-    </row>
-    <row r="26" spans="12:29" x14ac:dyDescent="0.3">
-      <c r="L26" s="1"/>
-    </row>
-    <row r="32" spans="12:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>-6.9077552789821368</v>
+      </c>
+      <c r="K14">
+        <v>0.52269439874826651</v>
+      </c>
+    </row>
+    <row r="21" spans="16:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="16:29" x14ac:dyDescent="0.3">
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="3"/>
+    </row>
+    <row r="32" spans="16:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="34" spans="16:29" x14ac:dyDescent="0.3">
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="4"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="4"/>
+      <c r="P34" s="3"/>
+      <c r="Q34" s="3"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="3"/>
+      <c r="U34" s="3"/>
+      <c r="V34" s="3"/>
+      <c r="W34" s="3"/>
+      <c r="X34" s="3"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="3"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="3"/>
     </row>
     <row r="45" spans="16:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="47" spans="16:29" x14ac:dyDescent="0.3">
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
-      <c r="R47" s="4"/>
-      <c r="S47" s="4"/>
-      <c r="T47" s="4"/>
-      <c r="U47" s="4"/>
-      <c r="V47" s="4"/>
-      <c r="W47" s="4"/>
-      <c r="X47" s="4"/>
-      <c r="Y47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AA47" s="4"/>
-      <c r="AB47" s="5"/>
-      <c r="AC47" s="4"/>
+      <c r="P47" s="3"/>
+      <c r="Q47" s="3"/>
+      <c r="R47" s="3"/>
+      <c r="S47" s="3"/>
+      <c r="T47" s="3"/>
+      <c r="U47" s="3"/>
+      <c r="V47" s="3"/>
+      <c r="W47" s="3"/>
+      <c r="X47" s="3"/>
+      <c r="Y47" s="3"/>
+      <c r="Z47" s="3"/>
+      <c r="AA47" s="3"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="3"/>
     </row>
     <row r="58" spans="16:29" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="60" spans="16:29" x14ac:dyDescent="0.3">
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="5"/>
-      <c r="AC60" s="4"/>
+      <c r="P60" s="3"/>
+      <c r="Q60" s="3"/>
+      <c r="R60" s="3"/>
+      <c r="S60" s="3"/>
+      <c r="T60" s="3"/>
+      <c r="U60" s="3"/>
+      <c r="V60" s="3"/>
+      <c r="W60" s="3"/>
+      <c r="X60" s="3"/>
+      <c r="Y60" s="3"/>
+      <c r="Z60" s="3"/>
+      <c r="AA60" s="3"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
